--- a/Reporting.Service.Web.UI/CierreMision.xlsx
+++ b/Reporting.Service.Web.UI/CierreMision.xlsx
@@ -38,7 +38,7 @@
     <t>UPDATE:</t>
   </si>
   <si>
-    <t>27/11/2023 11:55:21 p. m.</t>
+    <t>29/11/2023 11:22:35 p. m.</t>
   </si>
   <si>
     <t>CUSTOMER POC:</t>
